--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -1,63 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeCompare\Rohini\AccessWeb\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitRemoteViz\AccessWeb\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6196BAA-3EAA-4EDA-AD57-9E2749D750F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED214BC-80BB-4858-B100-F84E633AF2EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="954" firstSheet="7" activeTab="15" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="954" firstSheet="1" activeTab="4" xr2:uid="{C6F85985-84AE-4DCB-8550-9B2F16782E4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="26" r:id="rId1"/>
-    <sheet name="Audit Logs" sheetId="47" r:id="rId2"/>
-    <sheet name="ChangePasswd" sheetId="46" r:id="rId3"/>
-    <sheet name="AppComposerNew" sheetId="44" r:id="rId4"/>
-    <sheet name="AppComposer" sheetId="45" r:id="rId5"/>
-    <sheet name="FilesTableCols " sheetId="43" r:id="rId6"/>
-    <sheet name="FileViewer2020.4" sheetId="41" r:id="rId7"/>
-    <sheet name="ManageBookMark" sheetId="40" r:id="rId8"/>
-    <sheet name="2020.4" sheetId="39" r:id="rId9"/>
-    <sheet name="FileViewerJobs" sheetId="37" r:id="rId10"/>
-    <sheet name="Generic_Actions" sheetId="36" r:id="rId11"/>
-    <sheet name="Access_Management" sheetId="32" r:id="rId12"/>
-    <sheet name="Preferences" sheetId="33" r:id="rId13"/>
-    <sheet name="JobsTableCols" sheetId="29" r:id="rId14"/>
-    <sheet name="Cluster_Registration" sheetId="28" r:id="rId15"/>
-    <sheet name="JobDetails" sheetId="30" r:id="rId16"/>
-    <sheet name="JobMonitoringGeneric" sheetId="27" r:id="rId17"/>
-    <sheet name="ViewDetailsForNonOwner" sheetId="23" r:id="rId18"/>
-    <sheet name="ProfileSubmissions" sheetId="21" r:id="rId19"/>
-    <sheet name="ProfileOperations" sheetId="14" r:id="rId20"/>
-    <sheet name="JobAction" sheetId="5" r:id="rId21"/>
-    <sheet name="JobArrayAction" sheetId="31" r:id="rId22"/>
-    <sheet name="JobActionNotJobOwner" sheetId="20" r:id="rId23"/>
-    <sheet name="JobActionIcon" sheetId="18" r:id="rId24"/>
-    <sheet name="JobActionIconNotJobOwner" sheetId="24" r:id="rId25"/>
-    <sheet name="JS-Latest" sheetId="16" r:id="rId26"/>
-    <sheet name="BookMarks" sheetId="17" r:id="rId27"/>
-    <sheet name="JobSubmission-Folder operations" sheetId="12" r:id="rId28"/>
-    <sheet name="FolderOperations" sheetId="11" r:id="rId29"/>
-    <sheet name="JobSubmission-File operations" sheetId="13" r:id="rId30"/>
-    <sheet name="FileTab_GenericTC" sheetId="42" r:id="rId31"/>
-    <sheet name="FileOperations" sheetId="9" r:id="rId32"/>
-    <sheet name="LoginData" sheetId="1" r:id="rId33"/>
-    <sheet name="JobFilters" sheetId="8" r:id="rId34"/>
-    <sheet name="FileViewerOps" sheetId="15" r:id="rId35"/>
-    <sheet name="CreateFolder" sheetId="2" r:id="rId36"/>
-    <sheet name="CreateFile" sheetId="3" r:id="rId37"/>
-    <sheet name="CompletedJobsFolder" sheetId="7" r:id="rId38"/>
-    <sheet name="RunningFolder" sheetId="6" r:id="rId39"/>
-    <sheet name="JobFiltersSavedFilters" sheetId="19" r:id="rId40"/>
+    <sheet name="HiddenFileFolder" sheetId="49" r:id="rId2"/>
+    <sheet name="MultiFileFolderOps" sheetId="48" r:id="rId3"/>
+    <sheet name="Audit Logs" sheetId="47" r:id="rId4"/>
+    <sheet name="ChangePasswd" sheetId="46" r:id="rId5"/>
+    <sheet name="AppComposerNew" sheetId="44" r:id="rId6"/>
+    <sheet name="AppComposer" sheetId="45" r:id="rId7"/>
+    <sheet name="FilesTableCols " sheetId="43" r:id="rId8"/>
+    <sheet name="FileViewer2020.4" sheetId="41" r:id="rId9"/>
+    <sheet name="ManageBookMark" sheetId="40" r:id="rId10"/>
+    <sheet name="2020.4" sheetId="39" r:id="rId11"/>
+    <sheet name="FileViewerJobs" sheetId="37" r:id="rId12"/>
+    <sheet name="Generic_Actions" sheetId="36" r:id="rId13"/>
+    <sheet name="Access_Management" sheetId="32" r:id="rId14"/>
+    <sheet name="Preferences" sheetId="33" r:id="rId15"/>
+    <sheet name="JobsTableCols" sheetId="29" r:id="rId16"/>
+    <sheet name="Cluster_Registration" sheetId="28" r:id="rId17"/>
+    <sheet name="JobDetails" sheetId="30" r:id="rId18"/>
+    <sheet name="JobMonitoringGeneric" sheetId="27" r:id="rId19"/>
+    <sheet name="ViewDetailsForNonOwner" sheetId="23" r:id="rId20"/>
+    <sheet name="ProfileSubmissions" sheetId="21" r:id="rId21"/>
+    <sheet name="ProfileOperations" sheetId="14" r:id="rId22"/>
+    <sheet name="JobAction" sheetId="5" r:id="rId23"/>
+    <sheet name="JobArrayAction" sheetId="31" r:id="rId24"/>
+    <sheet name="JobActionNotJobOwner" sheetId="20" r:id="rId25"/>
+    <sheet name="JobActionIcon" sheetId="18" r:id="rId26"/>
+    <sheet name="JobActionIconNotJobOwner" sheetId="24" r:id="rId27"/>
+    <sheet name="JS-Latest" sheetId="16" r:id="rId28"/>
+    <sheet name="BookMarks" sheetId="17" r:id="rId29"/>
+    <sheet name="JobSubmission-Folder operations" sheetId="12" r:id="rId30"/>
+    <sheet name="FolderOperations" sheetId="11" r:id="rId31"/>
+    <sheet name="JobSubmission-File operations" sheetId="13" r:id="rId32"/>
+    <sheet name="FileTab_GenericTC" sheetId="42" r:id="rId33"/>
+    <sheet name="FileOperations" sheetId="9" r:id="rId34"/>
+    <sheet name="LoginData" sheetId="1" r:id="rId35"/>
+    <sheet name="JobFilters" sheetId="8" r:id="rId36"/>
+    <sheet name="FileViewerOps" sheetId="15" r:id="rId37"/>
+    <sheet name="CreateFolder" sheetId="2" r:id="rId38"/>
+    <sheet name="CreateFile" sheetId="3" r:id="rId39"/>
+    <sheet name="CompletedJobsFolder" sheetId="7" r:id="rId40"/>
+    <sheet name="RunningFolder" sheetId="6" r:id="rId41"/>
+    <sheet name="JobFiltersSavedFilters" sheetId="19" r:id="rId42"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'JS-Latest'!$A$1:$G$56</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">ProfileOperations!$A$1:$G$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">ProfileSubmissions!$A$1:$G$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="27" hidden="1">'JS-Latest'!$A$1:$G$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">ProfileOperations!$A$1:$G$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">ProfileSubmissions!$A$1:$G$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3309" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3558" uniqueCount="1158">
   <si>
     <t>username</t>
   </si>
@@ -3332,9 +3334,6 @@
     <t>Altair@123</t>
   </si>
   <si>
-    <t xml:space="preserve"> BAD PASSWORD: it is WAY too short</t>
-  </si>
-  <si>
     <t>BAD PASSWORD : password length is short</t>
   </si>
   <si>
@@ -3397,6 +3396,165 @@
   </si>
   <si>
     <t>Test case to edit file in job details page Input Folder</t>
+  </si>
+  <si>
+    <t>FilesIcon</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Test case to make sure the output files and folders are displayed under output section and the user is able to delete by selecting the multiple files and folders</t>
+  </si>
+  <si>
+    <t>Test case to make sure the output files and folders are displayed under output section and the user is able to create new file by selecting the multiple files and folders</t>
+  </si>
+  <si>
+    <t>Test case to make sure the output files and folders are displayed under output section and the user is able to download by selecting the multiple files and folders</t>
+  </si>
+  <si>
+    <t>BothIcon</t>
+  </si>
+  <si>
+    <t>Test case to make sure the output files and folders are displayed under output section and the user is able to delete by selecting the multiple files and folders using top menu icon</t>
+  </si>
+  <si>
+    <t>Test case to make sure the output files and folders are displayed under output section and the user is able to resubmit by selecting the multiple files and folders using top menu icon</t>
+  </si>
+  <si>
+    <t>Test case to make sure the output files and folders are displayed under output section and the user is able to download by selecting the multiple files and folders using top menu icon</t>
+  </si>
+  <si>
+    <t>Test case to make sure the output files are displayed under output section and the user is able to delete by selecting the multiple Files</t>
+  </si>
+  <si>
+    <t>Test case to make sure the output files are displayed under output section and the user is able to create new file by selecting the multiple Files</t>
+  </si>
+  <si>
+    <t>Test case to make sure the output files are displayed under output section and the user is able to download by selecting the multiple Files</t>
+  </si>
+  <si>
+    <t>Test case to make sure the output files are displayed under output section and the user is able to delete by selecting the multiple Files using top menu icon</t>
+  </si>
+  <si>
+    <t>Test case to make sure the output files are displayed under output section and the user is able to resubmit by selecting the multiple Files using top menu icon</t>
+  </si>
+  <si>
+    <t>Test case to make sure the output files are displayed under output section and the user is able to download by selecting the multiple Files using top menu icon</t>
+  </si>
+  <si>
+    <t>Folders</t>
+  </si>
+  <si>
+    <t>Test case to make sure the output files are displayed under output section and the user is able to delete by selecting the multiple folders</t>
+  </si>
+  <si>
+    <t>Test case to make sure the output files are displayed under output section and the user is able to create new file by selecting the multiple folders</t>
+  </si>
+  <si>
+    <t>Test case to make sure the output files are displayed under output section and the user is able to download by selecting the multiple folders</t>
+  </si>
+  <si>
+    <t>FoldersIcon</t>
+  </si>
+  <si>
+    <t>Test case to make sure the output files are displayed under output section and the user is able to delete by selecting the multiple folders using top menu icon</t>
+  </si>
+  <si>
+    <t>Test case to make sure the output files are displayed under output section and the user is able to resubmit by selecting the multiple folders using top menu icon</t>
+  </si>
+  <si>
+    <t>Test case to make sure the output files are displayed under output section and the user is able to download by selecting the multiple folders using top menu icon</t>
+  </si>
+  <si>
+    <t>Test case to make sure the Input files are displayed under Input section and the user is able to download by selecting the multiple folders using top menu icon</t>
+  </si>
+  <si>
+    <t>Test case to make sure the Input files are displayed under Input section and the user is able to resubmit by selecting the multiple folders using top menu icon</t>
+  </si>
+  <si>
+    <t>Test case to make sure the Input files are displayed under Input section and the user is able to delete by selecting the multiple folders using top menu icon</t>
+  </si>
+  <si>
+    <t>Test case to make sure the Input files are displayed under Input section and the user is able to download by selecting the multiple folders</t>
+  </si>
+  <si>
+    <t>Test case to make sure the Input files are displayed under Input section and the user is able to create new file by selecting the multiple folders</t>
+  </si>
+  <si>
+    <t>Test case to make sure the Input files are displayed under Input section and the user is able to delete by selecting the multiple folders</t>
+  </si>
+  <si>
+    <t>Test case to make sure the Input files are displayed under Input section and the user is able to download by selecting the multiple Files using top menu icon</t>
+  </si>
+  <si>
+    <t>Test case to make sure the Input files are displayed under Input section and the user is able to resubmit by selecting the multiple Files using top menu icon</t>
+  </si>
+  <si>
+    <t>Test case to make sure the Input files are displayed under Input section and the user is able to delete by selecting the multiple Files using top menu icon</t>
+  </si>
+  <si>
+    <t>Test case to make sure the Input files are displayed under Input section and the user is able to download by selecting the multiple Files</t>
+  </si>
+  <si>
+    <t>Test case to make sure the Input files are displayed under Input section and the user is able to create new file by selecting the multiple Files</t>
+  </si>
+  <si>
+    <t>Test case to make sure the Input files are displayed under Input section and the user is able to delete by selecting the multiple Files</t>
+  </si>
+  <si>
+    <t>Test case to make sure the Input files and folders are displayed under Input section and the user is able to download by selecting the multiple files and folders using top menu icon</t>
+  </si>
+  <si>
+    <t>Test case to make sure the Input files and folders are displayed under Input section and the user is able to resubmit by selecting the multiple files and folders using top menu icon</t>
+  </si>
+  <si>
+    <t>Test case to make sure the Input files and folders are displayed under Input section and the user is able to delete by selecting the multiple files and folders using top menu icon</t>
+  </si>
+  <si>
+    <t>Test case to make sure the Input files and folders are displayed under Input section and the user is able to download by selecting the multiple files and folders</t>
+  </si>
+  <si>
+    <t>Test case to make sure the Input files and folders are displayed under Input section and the user is able to create new file by selecting the multiple files and folders</t>
+  </si>
+  <si>
+    <t>Test case to make sure the Input files and folders are displayed under Input section and the user is able to delete by selecting the multiple files and folders</t>
+  </si>
+  <si>
+    <t>RFB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view hidden file and folders  - files tab - jobs page rfb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">view hidden file and folders  - running  tab </t>
+  </si>
+  <si>
+    <t xml:space="preserve">view hidden file and folders  - output tab </t>
+  </si>
+  <si>
+    <t xml:space="preserve">view hidden file and folders  - input tab </t>
+  </si>
+  <si>
+    <t xml:space="preserve">view hidden file and folders  - files tab </t>
+  </si>
+  <si>
+    <t>FilesTab</t>
+  </si>
+  <si>
+    <t>prefValue</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>BAD PASSWORD: The password is shorter than 8 characters</t>
   </si>
 </sst>
 </file>
@@ -3454,7 +3612,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3478,8 +3636,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -3517,13 +3681,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3557,6 +3766,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
@@ -4114,6 +4333,251 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDEB086-7FEB-4B39-87A9-1F088DACEF5D}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="56.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>655</v>
+      </c>
+      <c r="C7" t="s">
+        <v>656</v>
+      </c>
+      <c r="D7" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>657</v>
+      </c>
+      <c r="B8" t="s">
+        <v>540</v>
+      </c>
+      <c r="C8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>780</v>
+      </c>
+      <c r="B9" t="s">
+        <v>781</v>
+      </c>
+      <c r="C9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D9" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>784</v>
+      </c>
+      <c r="B10" t="s">
+        <v>785</v>
+      </c>
+      <c r="C10" t="s">
+        <v>783</v>
+      </c>
+      <c r="D10" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>786</v>
+      </c>
+      <c r="B11" t="s">
+        <v>787</v>
+      </c>
+      <c r="C11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>789</v>
+      </c>
+      <c r="B12" t="s">
+        <v>788</v>
+      </c>
+      <c r="C12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D12" t="s">
+        <v>690</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{7DBFE464-6614-48D5-A3DF-EA70153B35D9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F523F3BF-8164-44E1-977A-66026445142F}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>770</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4567093D-A8D5-4E03-9534-579CE219E49C}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4458,7 +4922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B5724D-5463-4FCF-A4F1-F5DFAB6E3F70}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4520,7 +4984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DC2C27-8A96-4A23-BB21-23846DE78349}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4818,7 +5282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484BDA10-16FC-473B-B01F-8455443B2C0A}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4995,7 +5459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE8C224-BA72-4C4C-B7BF-5463A9EB02C3}">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -5521,7 +5985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D482266D-B90F-4B77-ADCD-DBA0EB5AE431}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -6011,15 +6475,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B160D41-22A7-4DDD-97BB-D99E5654BA01}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6357,7 +6821,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -6371,7 +6835,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -6385,7 +6849,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
@@ -6414,7 +6878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414B5370-5029-483B-916B-4E563C4D6F93}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -6602,7 +7066,322 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAADB6C-9565-42AA-8291-A315CEC7193D}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B2" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B3" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="27" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B4" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B5" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="27" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B6" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B7" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B8" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="27" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B9" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B10" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="26" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="28" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B12" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="27" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B13" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>582</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="27" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B14" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="27" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B15" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="27" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B16" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="27" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B17" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="27" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B18" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="27" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B19" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="27" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B20" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="26" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B21" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DE01A5-2C8B-4355-8451-CE73E53961BB}">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
@@ -6848,7 +7627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4692B37E-0216-4972-A110-E1B81B06E6C4}">
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF92D050"/>
@@ -8065,187 +8844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0C9BC5-E2CE-4417-A398-52D4FBA952C1}">
-  <dimension ref="A1:M11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" customWidth="1"/>
-    <col min="13" max="13" width="86.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="J1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" t="s">
-        <v>273</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B3" t="s">
-        <v>540</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1063</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>1067</v>
-      </c>
-      <c r="M6" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>1069</v>
-      </c>
-      <c r="M7" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B8" t="s">
-        <v>326</v>
-      </c>
-      <c r="M8" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>1073</v>
-      </c>
-      <c r="M9" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B10" t="s">
-        <v>326</v>
-      </c>
-      <c r="M10" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>181</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>208</v>
-      </c>
-      <c r="J11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" t="s">
-        <v>100</v>
-      </c>
-      <c r="M11" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED88715B-2C1F-4B02-9C56-197D358D7FB4}">
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF92D050"/>
@@ -9229,7 +9828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6A7684-571C-4EED-95D8-7F34A7B49B6B}">
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF92D050"/>
@@ -9522,7 +10121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6188AC2A-13AA-44F7-B850-44BEE776D85D}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -9755,7 +10354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F4AAFC-C1A9-47B3-B848-06156D11375D}">
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FF92D050"/>
@@ -9906,7 +10505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EE12FB-03D5-4E75-92F5-3C993AAF3A5A}">
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF92D050"/>
@@ -10029,7 +10628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C6162D-ED52-4421-8B7E-2C58681ADE6F}">
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FF92D050"/>
@@ -10176,7 +10775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208BBAD8-8992-4A11-B32C-5E8E74095072}">
   <sheetPr codeName="Sheet9">
     <tabColor rgb="FF92D050"/>
@@ -12306,7 +12905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700E1104-0B81-46DF-BF55-20A13EF92D67}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="5"/>
@@ -12442,7 +13041,658 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2E8DB6-985C-4A4D-B54D-754B4AB198CD}">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="146.90625" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C12" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>310</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>310</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>310</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B18" t="s">
+        <v>467</v>
+      </c>
+      <c r="C18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>310</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="25" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="25" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="25" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="25" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="25" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="25" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>304</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>304</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>304</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B30" t="s">
+        <v>467</v>
+      </c>
+      <c r="C30" t="s">
+        <v>304</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>304</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>304</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>304</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>304</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B36" t="s">
+        <v>467</v>
+      </c>
+      <c r="C36" t="s">
+        <v>304</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="s">
+        <v>304</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604C20EA-1202-4F32-9A03-50C03C9141BD}">
   <sheetPr codeName="Sheet12">
     <tabColor theme="5"/>
@@ -12548,7 +13798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6364318-D354-4A54-B885-C4D13BCF1553}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="5"/>
@@ -12757,335 +14007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228A5EA1-7578-437E-943F-B5DA9932AB71}">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.1796875" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" customWidth="1"/>
-    <col min="6" max="6" width="49.81640625" customWidth="1"/>
-    <col min="7" max="7" width="30.36328125" customWidth="1"/>
-    <col min="8" max="8" width="26.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1044</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1035</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="54.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1044</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1044</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1035</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="45.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1101</v>
-      </c>
-      <c r="H13" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="Bangalore@123" xr:uid="{C8EC15C6-FC3F-4597-9188-215E9CFFA027}"/>
-    <hyperlink ref="C5" r:id="rId2" display="Bangalore@123" xr:uid="{43E91C2E-F6E8-4A90-B2CA-F209A92C7702}"/>
-    <hyperlink ref="D5" r:id="rId3" display="Ravikiran@123" xr:uid="{512DFB68-4A9F-4513-AACF-54E88290E03B}"/>
-    <hyperlink ref="E5" r:id="rId4" display="Ravikiran@12345" xr:uid="{5149011A-95AD-47EA-B6F3-950DD752673E}"/>
-    <hyperlink ref="C6" r:id="rId5" display="Ravikiran@1234" xr:uid="{1BEF4D23-E109-4E27-9BB6-3F757E728BAD}"/>
-    <hyperlink ref="D6" r:id="rId6" display="Bangalore@123" xr:uid="{2895DFF4-637C-477E-BB48-228D866008A8}"/>
-    <hyperlink ref="E6" r:id="rId7" display="Bangalore@123" xr:uid="{6D315A0A-FDAD-4CD6-926E-FB7C1E2234AA}"/>
-    <hyperlink ref="D7" r:id="rId8" display="Bangalore@123" xr:uid="{FDFE78CF-D8C7-49C9-9174-EAD8BC50BAB1}"/>
-    <hyperlink ref="E7" r:id="rId9" display="Bangalore@1234" xr:uid="{79BAEDCE-F861-40BF-A6F8-9BAA91FE9DBB}"/>
-    <hyperlink ref="E8" r:id="rId10" display="Bangalore@1234" xr:uid="{6E853790-555F-4AE5-A483-E4B10C4FF6FD}"/>
-    <hyperlink ref="C9" r:id="rId11" display="Bangalore@123" xr:uid="{1E932A47-C7B3-4517-852D-94BCD377FC69}"/>
-    <hyperlink ref="D9" r:id="rId12" display="Ravikiran@123" xr:uid="{63B69B27-01C7-4C08-85A9-0677EFA33F90}"/>
-    <hyperlink ref="E9" r:id="rId13" display="Ravikiran@123" xr:uid="{61FC8314-0824-4B89-AAD5-0DD9115A2C9F}"/>
-    <hyperlink ref="C10" r:id="rId14" display="Bangalore@123" xr:uid="{07DB1408-9A3C-48DA-8AE6-9F46517C82C0}"/>
-    <hyperlink ref="D10" r:id="rId15" display="Bangalore@123" xr:uid="{777A7946-A84C-40AD-B057-159CF41B297F}"/>
-    <hyperlink ref="C11" r:id="rId16" display="Bangalore@123" xr:uid="{F5664057-48D7-40FE-9F4E-A217B3D0B094}"/>
-    <hyperlink ref="D11" r:id="rId17" display="Bangalore@123" xr:uid="{274D8A59-843E-4C2F-932E-503C80E8AF64}"/>
-    <hyperlink ref="E11" r:id="rId18" display="Bangalore@123" xr:uid="{1181F305-80C5-477F-936B-526E5C125366}"/>
-    <hyperlink ref="C12" r:id="rId19" display="Bangalore@123" xr:uid="{5DF816C2-DA71-4F17-8506-62D5AC2D0E5F}"/>
-    <hyperlink ref="C2" r:id="rId20" display="Bangalore@123" xr:uid="{0A8E8EC5-A25C-4915-987C-09DD8E7DD541}"/>
-    <hyperlink ref="C3" r:id="rId21" display="Ravikiran@123" xr:uid="{9DF06F33-B6C2-4C72-B2D6-61BFB325F1E5}"/>
-    <hyperlink ref="E3" r:id="rId22" display="Bangalore@123" xr:uid="{14F7642D-2170-4ED6-B430-E6AEC100E9DD}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId23"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AB462C-E7DD-41D5-B1F6-0B76A79BD546}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="5"/>
@@ -13224,7 +14146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DA0612-5B2C-41D1-B114-8D7F9449CFCB}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -13415,7 +14337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4B8566-925A-4EBE-8FA2-F566554280EF}">
   <sheetPr codeName="Sheet14">
     <tabColor theme="5"/>
@@ -13811,7 +14733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8162057B-52FF-4F06-A9FE-C8E0168242E3}">
   <sheetPr codeName="Sheet15">
     <tabColor rgb="FF92D050"/>
@@ -13955,7 +14877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DCD494-48E9-4641-90F2-206CAB2F7041}">
   <sheetPr codeName="Sheet16">
     <tabColor rgb="FF92D050"/>
@@ -14185,7 +15107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D72A9D9-D447-4A21-A49D-88C8132B73CE}">
   <sheetPr codeName="Sheet17">
     <tabColor theme="5"/>
@@ -14389,7 +15311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F5A9AB-486E-4615-848C-03E69B3477F9}">
   <sheetPr codeName="Sheet18">
     <tabColor theme="5"/>
@@ -14602,7 +15524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699F63E1-0070-48F6-AF52-8BCBFD9B07EF}">
   <sheetPr codeName="Sheet19">
     <tabColor theme="5"/>
@@ -14766,7 +15688,187 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0C9BC5-E2CE-4417-A398-52D4FBA952C1}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
+    <col min="13" max="13" width="86.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" t="s">
+        <v>273</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B3" t="s">
+        <v>540</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B8" t="s">
+        <v>326</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B10" t="s">
+        <v>326</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>208</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783D1FEC-B865-44FA-820C-57E3FB6789F2}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:B7"/>
@@ -14845,7 +15947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81503B49-E101-4423-8FFF-B866835D92EC}">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:B5"/>
@@ -14905,311 +16007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A529B9-903C-45A2-901F-9D341955071D}">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="89.81640625" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C1" t="s">
-        <v>734</v>
-      </c>
-      <c r="D1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>988</v>
-      </c>
-      <c r="B2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C2" t="s">
-        <v>989</v>
-      </c>
-      <c r="D2" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>990</v>
-      </c>
-      <c r="B3" t="s">
-        <v>747</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>991</v>
-      </c>
-      <c r="D3" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>992</v>
-      </c>
-      <c r="B4" t="s">
-        <v>993</v>
-      </c>
-      <c r="C4" t="s">
-        <v>994</v>
-      </c>
-      <c r="D4" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>995</v>
-      </c>
-      <c r="B5" t="s">
-        <v>996</v>
-      </c>
-      <c r="C5" t="s">
-        <v>764</v>
-      </c>
-      <c r="D5" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>997</v>
-      </c>
-      <c r="B6" t="s">
-        <v>998</v>
-      </c>
-      <c r="C6" t="s">
-        <v>998</v>
-      </c>
-      <c r="D6" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>999</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D7" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D8" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D9" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D10" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D11" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D12" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D13" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D14" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D17" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D18" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D19" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D20" t="s">
-        <v>738</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{0BDD38D8-2559-4808-96F6-AF1B036AFB43}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCEF9F3-3285-454F-A311-2FAE775A4BE5}">
   <sheetPr codeName="Sheet22">
     <tabColor rgb="FF92D050"/>
@@ -15678,6 +16476,638 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228A5EA1-7578-437E-943F-B5DA9932AB71}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="6" max="6" width="49.81640625" customWidth="1"/>
+    <col min="7" max="7" width="30.36328125" customWidth="1"/>
+    <col min="8" max="8" width="26.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="54.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="Bangalore@123" xr:uid="{9051169D-3E9C-4EB9-88A4-C45EA5C76015}"/>
+    <hyperlink ref="C5" r:id="rId2" display="Bangalore@123" xr:uid="{FF14CA92-7AD6-44C6-9706-512106B562F4}"/>
+    <hyperlink ref="D5" r:id="rId3" display="Ravikiran@123" xr:uid="{FE1E7BB6-1D6A-449E-82E7-2A4DBD373464}"/>
+    <hyperlink ref="E5" r:id="rId4" display="Ravikiran@12345" xr:uid="{338D1BA4-3EB0-41BD-A8A0-1D2631115291}"/>
+    <hyperlink ref="C6" r:id="rId5" display="Ravikiran@1234" xr:uid="{DCF0403C-152E-4D84-A36A-B74B5FAE0E2F}"/>
+    <hyperlink ref="D6" r:id="rId6" display="Bangalore@123" xr:uid="{F10EBDE3-20DC-4561-A6CB-D0D3C801B837}"/>
+    <hyperlink ref="E6" r:id="rId7" display="Bangalore@123" xr:uid="{C570BD7F-A6A1-4131-B0DF-BAB1683F0F4B}"/>
+    <hyperlink ref="D7" r:id="rId8" display="Bangalore@123" xr:uid="{1872446A-2795-48BF-996C-476463111A9C}"/>
+    <hyperlink ref="E7" r:id="rId9" display="Bangalore@1234" xr:uid="{0573E3C7-BB01-4E5D-A5AD-DB5DDA4C3576}"/>
+    <hyperlink ref="E8" r:id="rId10" display="Bangalore@1234" xr:uid="{980B1593-3A05-4EE8-A0E6-8A89EA622D1B}"/>
+    <hyperlink ref="C9" r:id="rId11" display="Bangalore@123" xr:uid="{9288B7A2-BE32-4EA9-91B9-4353949AA270}"/>
+    <hyperlink ref="D9" r:id="rId12" display="Ravikiran@123" xr:uid="{2362058A-6283-4034-9DBF-A24A273A1900}"/>
+    <hyperlink ref="E9" r:id="rId13" display="Ravikiran@123" xr:uid="{7492505D-CC98-4247-8388-EE6D08592A51}"/>
+    <hyperlink ref="C10" r:id="rId14" display="Bangalore@123" xr:uid="{17C00757-CA60-49CE-BD4B-4ECD8C78F055}"/>
+    <hyperlink ref="D10" r:id="rId15" display="Bangalore@123" xr:uid="{AB845BD5-0DF3-41E9-B17C-255D504C0C46}"/>
+    <hyperlink ref="C11" r:id="rId16" display="Bangalore@123" xr:uid="{F08A6AE7-7EFE-4CBE-886C-DB4E0C3D6B92}"/>
+    <hyperlink ref="D11" r:id="rId17" display="Bangalore@123" xr:uid="{2CAE6E62-FD1F-436E-9705-65DF714C5485}"/>
+    <hyperlink ref="E11" r:id="rId18" display="Bangalore@123" xr:uid="{ADE7F2FF-6AA0-46EE-97C6-284F7D33116D}"/>
+    <hyperlink ref="C12" r:id="rId19" display="Bangalore@123" xr:uid="{CBA8793C-EDF1-4023-9657-B86B43AC232F}"/>
+    <hyperlink ref="C2" r:id="rId20" display="Bangalore@123" xr:uid="{6B399BAD-6385-4BC3-AAE0-DB4FDFADB40A}"/>
+    <hyperlink ref="C3" r:id="rId21" display="Ravikiran@123" xr:uid="{A65D2318-6B40-4355-B990-CCA38CD40B92}"/>
+    <hyperlink ref="E3" r:id="rId22" display="Bangalore@123" xr:uid="{8282EC62-CBDB-40B7-9E6D-1D9DB3DAF0E1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId23"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A529B9-903C-45A2-901F-9D341955071D}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="89.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>988</v>
+      </c>
+      <c r="B2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C2" t="s">
+        <v>989</v>
+      </c>
+      <c r="D2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>990</v>
+      </c>
+      <c r="B3" t="s">
+        <v>747</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="D3" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>992</v>
+      </c>
+      <c r="B4" t="s">
+        <v>993</v>
+      </c>
+      <c r="C4" t="s">
+        <v>994</v>
+      </c>
+      <c r="D4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>995</v>
+      </c>
+      <c r="B5" t="s">
+        <v>996</v>
+      </c>
+      <c r="C5" t="s">
+        <v>764</v>
+      </c>
+      <c r="D5" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>997</v>
+      </c>
+      <c r="B6" t="s">
+        <v>998</v>
+      </c>
+      <c r="C6" t="s">
+        <v>998</v>
+      </c>
+      <c r="D6" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>999</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D9" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D10" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D11" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D12" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D13" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D14" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D17" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D18" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D19" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D20" t="s">
+        <v>738</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{0BDD38D8-2559-4808-96F6-AF1B036AFB43}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E2CB3A-76BE-454A-8CED-01A84C1CCF2F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -15913,7 +17343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3050C8-3A8D-4DE1-9C22-09145670512E}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -16159,7 +17589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8004406F-9BB5-44CC-B5FD-6AB51EA63268}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -16236,249 +17666,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDEB086-7FEB-4B39-87A9-1F088DACEF5D}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="56.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D3" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D4" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D5" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D6" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>655</v>
-      </c>
-      <c r="C7" t="s">
-        <v>656</v>
-      </c>
-      <c r="D7" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>657</v>
-      </c>
-      <c r="B8" t="s">
-        <v>540</v>
-      </c>
-      <c r="C8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D8" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>780</v>
-      </c>
-      <c r="B9" t="s">
-        <v>781</v>
-      </c>
-      <c r="C9" t="s">
-        <v>782</v>
-      </c>
-      <c r="D9" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>784</v>
-      </c>
-      <c r="B10" t="s">
-        <v>785</v>
-      </c>
-      <c r="C10" t="s">
-        <v>783</v>
-      </c>
-      <c r="D10" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>786</v>
-      </c>
-      <c r="B11" t="s">
-        <v>787</v>
-      </c>
-      <c r="C11" t="s">
-        <v>257</v>
-      </c>
-      <c r="D11" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>789</v>
-      </c>
-      <c r="B12" t="s">
-        <v>788</v>
-      </c>
-      <c r="C12" t="s">
-        <v>257</v>
-      </c>
-      <c r="D12" t="s">
-        <v>690</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Index!A1" display="TestCaseName" xr:uid="{7DBFE464-6614-48D5-A3DF-EA70153B35D9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F523F3BF-8164-44E1-977A-66026445142F}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="38.6328125" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>767</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>770</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>769</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>